--- a/test.xlsx
+++ b/test.xlsx
@@ -371,7 +371,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,7 +410,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -418,7 +418,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -426,7 +426,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
